--- a/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-topk-desired-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,45 +43,42 @@
     <t>war</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>collapse</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>falling</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
   </si>
   <si>
     <t>shit</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>falling</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
-    <t>selfish</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,18 +88,21 @@
     <t>cut</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>lower</t>
-  </si>
-  <si>
     <t>empty</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
@@ -112,6 +112,9 @@
     <t>love</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
@@ -124,7 +127,10 @@
     <t>hand</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>safe</t>
@@ -136,73 +142,82 @@
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>special</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>relief</t>
+    <t>gt</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -560,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -571,7 +586,7 @@
         <v>30</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -629,13 +644,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>31</v>
@@ -679,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9411764705882353</v>
+        <v>0.918918918918919</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K4">
-        <v>0.9666666666666667</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8918918918918919</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9491525423728814</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="L5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="M5">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -803,13 +818,13 @@
         <v>34</v>
       </c>
       <c r="K6">
-        <v>0.9302325581395349</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M6">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -853,13 +868,13 @@
         <v>35</v>
       </c>
       <c r="K7">
-        <v>0.9268929503916449</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="L7">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="M7">
-        <v>355</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -903,13 +918,13 @@
         <v>36</v>
       </c>
       <c r="K8">
-        <v>0.9090909090909091</v>
+        <v>0.9190600522193212</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>352</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -953,13 +968,13 @@
         <v>37</v>
       </c>
       <c r="K9">
-        <v>0.9084507042253521</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="M9">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +1018,13 @@
         <v>38</v>
       </c>
       <c r="K10">
-        <v>0.8984375</v>
+        <v>0.9148936170212766</v>
       </c>
       <c r="L10">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="M10">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1053,13 +1068,13 @@
         <v>39</v>
       </c>
       <c r="K11">
-        <v>0.8962264150943396</v>
+        <v>0.9084507042253521</v>
       </c>
       <c r="L11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="M11">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7558139534883721</v>
+        <v>0.7577519379844961</v>
       </c>
       <c r="C12">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D12">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K12">
-        <v>0.8936170212765957</v>
+        <v>0.8984375</v>
       </c>
       <c r="L12">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="M12">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7354497354497355</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="C13">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D13">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>0.8928571428571429</v>
+        <v>0.8962264150943396</v>
       </c>
       <c r="L13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="M13">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6949152542372882</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>0.8875</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L14">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="M14">
-        <v>142</v>
+        <v>100</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6944444444444444</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="C15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,13 +1268,13 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>0.8658536585365854</v>
+        <v>0.8875</v>
       </c>
       <c r="L15">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="M15">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6666666666666666</v>
+        <v>0.6644295302013423</v>
       </c>
       <c r="C16">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="D16">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1312,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K16">
-        <v>0.8620689655172413</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="M16">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6510067114093959</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C17">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>97</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1362,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K17">
-        <v>0.8611111111111112</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.6</v>
+        <v>0.5636363636363636</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1412,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K18">
-        <v>0.8253968253968254</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L18">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="M18">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,7 +1444,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5454545454545454</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C19">
         <v>30</v>
@@ -1447,19 +1462,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1494,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5333333333333333</v>
+        <v>0.5066666666666667</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D20">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,19 +1512,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K20">
-        <v>0.7794117647058824</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L20">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="M20">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1521,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>75</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1544,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5178571428571429</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="C21">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,19 +1562,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1571,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,13 +1594,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4888888888888889</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C22">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="D22">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1597,19 +1612,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K22">
-        <v>0.7640449438202247</v>
+        <v>0.788235294117647</v>
       </c>
       <c r="L22">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="M22">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1621,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1644,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3531746031746032</v>
+        <v>0.3896103896103896</v>
       </c>
       <c r="C23">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="D23">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,19 +1662,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>163</v>
+        <v>47</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K23">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="L23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1671,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1679,13 +1694,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1769436997319035</v>
+        <v>0.2117962466487936</v>
       </c>
       <c r="C24">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D24">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1697,19 +1712,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K24">
-        <v>0.7491525423728813</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L24">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>221</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1721,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>74</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1729,13 +1744,13 @@
         <v>53</v>
       </c>
       <c r="K25">
-        <v>0.7446808510638298</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L25">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="M25">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1747,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1755,13 +1770,13 @@
         <v>54</v>
       </c>
       <c r="K26">
-        <v>0.7238493723849372</v>
+        <v>0.75</v>
       </c>
       <c r="L26">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="M26">
-        <v>173</v>
+        <v>30</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1773,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>66</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1781,13 +1796,13 @@
         <v>55</v>
       </c>
       <c r="K27">
-        <v>0.7076923076923077</v>
+        <v>0.7457627118644068</v>
       </c>
       <c r="L27">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="M27">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1799,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1807,13 +1822,13 @@
         <v>56</v>
       </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.7322175732217573</v>
       </c>
       <c r="L28">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="M28">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1825,7 +1840,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1833,13 +1848,13 @@
         <v>57</v>
       </c>
       <c r="K29">
-        <v>0.631578947368421</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1851,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>21</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1859,13 +1874,13 @@
         <v>58</v>
       </c>
       <c r="K30">
-        <v>0.625</v>
+        <v>0.7127659574468085</v>
       </c>
       <c r="L30">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="M30">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1877,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1885,13 +1900,13 @@
         <v>59</v>
       </c>
       <c r="K31">
-        <v>0.6078431372549019</v>
+        <v>0.7076923076923077</v>
       </c>
       <c r="L31">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M31">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1903,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1911,13 +1926,13 @@
         <v>60</v>
       </c>
       <c r="K32">
-        <v>0.5769230769230769</v>
+        <v>0.6714285714285714</v>
       </c>
       <c r="L32">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M32">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1929,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1937,13 +1952,13 @@
         <v>61</v>
       </c>
       <c r="K33">
-        <v>0.5753424657534246</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="M33">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1955,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1963,25 +1978,155 @@
         <v>62</v>
       </c>
       <c r="K34">
-        <v>0.5555555555555556</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L34">
+        <v>33</v>
+      </c>
+      <c r="M34">
+        <v>33</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="10:17">
+      <c r="J35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35">
+        <v>0.5625</v>
+      </c>
+      <c r="L35">
+        <v>36</v>
+      </c>
+      <c r="M35">
+        <v>36</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="10:17">
+      <c r="J36" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K36">
+        <v>0.5342465753424658</v>
+      </c>
+      <c r="L36">
+        <v>39</v>
+      </c>
+      <c r="M36">
+        <v>39</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="10:17">
+      <c r="J37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K37">
+        <v>0.4871794871794872</v>
+      </c>
+      <c r="L37">
+        <v>38</v>
+      </c>
+      <c r="M37">
+        <v>38</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K38">
+        <v>0.4262295081967213</v>
+      </c>
+      <c r="L38">
+        <v>26</v>
+      </c>
+      <c r="M38">
+        <v>26</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="L39">
         <v>25</v>
       </c>
-      <c r="M34">
+      <c r="M39">
         <v>25</v>
       </c>
-      <c r="N34">
-        <v>1</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>20</v>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
